--- a/www/defaults_rema_fip2.xlsx
+++ b/www/defaults_rema_fip2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancarlosvillasenorderbez/GitHub/AppCosteo/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4666B2-7A59-6140-B3F6-99E47D093A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B7244-8BC8-9048-871C-F5733E10B4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FIP!$A$1:$T$483</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">REMA!$A$1:$T$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">REMA!$A$1:$T$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="512">
   <si>
     <t>Fase</t>
   </si>
@@ -1996,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T185"/>
+  <dimension ref="A1:T184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,7 +2127,7 @@
         <v>320</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M84" si="0">IF(I2=I1, M1+1, 1)</f>
+        <f t="shared" ref="M2:M83" si="0">IF(I2=I1, M1+1, 1)</f>
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T66" si="1">LOWER(_xlfn.CONCAT(A3,"_",C3,"_",LEFT(F3,3), "_",J3,"_", M3))</f>
+        <f t="shared" ref="T3:T65" si="1">LOWER(_xlfn.CONCAT(A3,"_",C3,"_",LEFT(F3,3), "_",J3,"_", M3))</f>
         <v>rema_1_1_1_2</v>
       </c>
     </row>
@@ -2515,10 +2515,10 @@
         <v>7</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>62</v>
@@ -2579,10 +2579,10 @@
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>62</v>
@@ -2643,10 +2643,10 @@
         <v>9</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>455</v>
+        <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>62</v>
@@ -2707,10 +2707,10 @@
         <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>23</v>
+        <v>456</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>62</v>
@@ -2741,20 +2741,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="4"/>
@@ -2768,26 +2768,26 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>456</v>
+        <v>28</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_1_1_11</v>
+        <v>rema_1_2_1_1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2832,13 +2832,13 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>231</v>
@@ -2847,11 +2847,11 @@
         <v>4</v>
       </c>
       <c r="S13" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_2_1_1</v>
+        <v>rema_1_2_1_2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>231</v>
       </c>
       <c r="R14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S14" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_2_1_2</v>
+        <v>rema_1_2_1_3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2960,26 +2960,26 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="R15" s="1">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="S15" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_2_1_3</v>
+        <v>rema_1_2_1_4</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -3024,26 +3024,26 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R16" s="1">
         <v>4</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="1">
-        <v>80</v>
-      </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_2_1_4</v>
+        <v>rema_1_2_1_5</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3061,20 +3061,20 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
@@ -3088,26 +3088,26 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="R17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_2_1_5</v>
+        <v>rema_1_3_1_1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -3152,26 +3152,26 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_3_1_1</v>
+        <v>rema_1_3_1_2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>349</v>
@@ -3216,26 +3216,23 @@
       </c>
       <c r="M19" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="R19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_3_1_2</v>
+        <v>rema_1_3_1_3</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -3253,20 +3250,20 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>348</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>349</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="4"/>
@@ -3280,13 +3277,16 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>352</v>
+        <v>50</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_3_1_3</v>
+        <v>rema_1_4_1_1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -3324,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>49</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>50</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="T21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_4_1_1</v>
+        <v>rema_1_4_1_2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>49</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>50</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="T22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_4_1_2</v>
+        <v>rema_1_4_1_3</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -3452,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>50</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="T23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_4_1_3</v>
+        <v>rema_1_4_1_4</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>49</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>50</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="T24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_4_1_4</v>
+        <v>rema_1_4_1_5</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -3560,30 +3560,30 @@
         <v>325</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="4"/>
@@ -3597,30 +3597,30 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="T25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_1_4_1_5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+        <v>rema_2_1_1_1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>325</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3633,21 +3633,21 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
+      <c r="E26" t="s">
+        <v>511</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>353</v>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>511</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="4"/>
@@ -3663,24 +3663,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1">
-        <v>5000</v>
-      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>470</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>471</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26"/>
       <c r="T26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>rema_2_1_1_1</v>
+        <f>LOWER(_xlfn.CONCAT(A26,"_",C26,"_",LEFT(F26,3), "_",J26,"_", M26))</f>
+        <v>rema_2_2_1_1</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3724,14 +3723,14 @@
         <v>320</v>
       </c>
       <c r="M27" s="1">
-        <f>IF(N27=I26, M26+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>182</v>
+        <v>472</v>
       </c>
       <c r="O27" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
@@ -3742,8 +3741,8 @@
       </c>
       <c r="S27"/>
       <c r="T27" s="1" t="str">
-        <f>LOWER(_xlfn.CONCAT(A27,"_",C27,"_",LEFT(F27,3), "_",J27,"_", M27))</f>
-        <v>rema_2_2_1_1</v>
+        <f t="shared" si="1"/>
+        <v>rema_2_2_1_2</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3787,18 +3786,18 @@
         <v>320</v>
       </c>
       <c r="M28" s="1">
-        <f>IF(N28=N27, M27+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O28" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>471</v>
+        <v>62</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3806,7 +3805,7 @@
       <c r="S28"/>
       <c r="T28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_3</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3850,18 +3849,18 @@
         <v>320</v>
       </c>
       <c r="M29" s="1">
-        <f>IF(N29=N28, M28+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O29" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P29"/>
       <c r="Q29" t="s">
-        <v>62</v>
+        <v>478</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3869,7 +3868,7 @@
       <c r="S29"/>
       <c r="T29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_4</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3897,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="I30" t="s">
         <v>511</v>
@@ -3913,18 +3912,18 @@
         <v>320</v>
       </c>
       <c r="M30" s="1">
-        <f>IF(N30=N29, M29+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>476</v>
+        <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P30"/>
       <c r="Q30" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3932,7 +3931,7 @@
       <c r="S30"/>
       <c r="T30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_5</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3960,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
         <v>511</v>
@@ -3976,18 +3975,18 @@
         <v>320</v>
       </c>
       <c r="M31" s="1">
-        <f>IF(N31=N30, M30+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="N31" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="O31" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P31"/>
       <c r="Q31" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -3995,7 +3994,7 @@
       <c r="S31"/>
       <c r="T31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_6</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4039,18 +4038,18 @@
         <v>320</v>
       </c>
       <c r="M32" s="1">
-        <f>IF(N32=N31, M31+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O32" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P32"/>
       <c r="Q32" t="s">
-        <v>62</v>
+        <v>484</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -4058,7 +4057,7 @@
       <c r="S32"/>
       <c r="T32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_7</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4102,18 +4101,18 @@
         <v>320</v>
       </c>
       <c r="M33" s="1">
-        <f>IF(N33=N32, M32+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="O33" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P33"/>
       <c r="Q33" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -4121,7 +4120,7 @@
       <c r="S33"/>
       <c r="T33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_8</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4165,18 +4164,18 @@
         <v>320</v>
       </c>
       <c r="M34" s="1">
-        <f>IF(N34=N33, M33+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="N34" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="O34" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>487</v>
+        <v>62</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -4184,7 +4183,7 @@
       <c r="S34"/>
       <c r="T34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_9</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4228,18 +4227,18 @@
         <v>320</v>
       </c>
       <c r="M35" s="1">
-        <f>IF(N35=N34, M34+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="N35" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O35" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>62</v>
+        <v>484</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -4247,7 +4246,7 @@
       <c r="S35"/>
       <c r="T35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_10</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4275,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s">
         <v>511</v>
@@ -4291,18 +4290,18 @@
         <v>320</v>
       </c>
       <c r="M36" s="1">
-        <f>IF(N36=N35, M35+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="N36" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O36" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -4310,7 +4309,7 @@
       <c r="S36"/>
       <c r="T36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_11</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4338,7 +4337,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
         <v>511</v>
@@ -4354,18 +4353,18 @@
         <v>320</v>
       </c>
       <c r="M37" s="1">
-        <f>IF(N37=N36, M36+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="N37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O37" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -4373,7 +4372,7 @@
       <c r="S37"/>
       <c r="T37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_12</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4417,18 +4416,18 @@
         <v>320</v>
       </c>
       <c r="M38" s="1">
-        <f>IF(N38=N37, M37+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="N38" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O38" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4436,7 +4435,7 @@
       <c r="S38"/>
       <c r="T38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_13</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4480,18 +4479,18 @@
         <v>320</v>
       </c>
       <c r="M39" s="1">
-        <f>IF(N39=N38, M38+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O39" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>494</v>
+        <v>62</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -4499,7 +4498,7 @@
       <c r="S39"/>
       <c r="T39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_14</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4543,18 +4542,18 @@
         <v>320</v>
       </c>
       <c r="M40" s="1">
-        <f>IF(N40=N39, M39+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="N40" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O40" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P40"/>
       <c r="Q40" t="s">
-        <v>62</v>
+        <v>494</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -4562,7 +4561,7 @@
       <c r="S40"/>
       <c r="T40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_15</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4606,18 +4605,18 @@
         <v>320</v>
       </c>
       <c r="M41" s="1">
-        <f>IF(N41=N40, M40+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="N41" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="O41" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -4625,7 +4624,7 @@
       <c r="S41"/>
       <c r="T41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_16</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4669,18 +4668,18 @@
         <v>320</v>
       </c>
       <c r="M42" s="1">
-        <f>IF(N42=N41, M41+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O42" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>484</v>
+        <v>62</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -4688,7 +4687,7 @@
       <c r="S42"/>
       <c r="T42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_17</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4716,7 +4715,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
         <v>511</v>
@@ -4732,18 +4731,18 @@
         <v>320</v>
       </c>
       <c r="M43" s="1">
-        <f>IF(N43=N42, M42+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="N43" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O43" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P43"/>
       <c r="Q43" t="s">
-        <v>62</v>
+        <v>484</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4751,7 +4750,7 @@
       <c r="S43"/>
       <c r="T43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_2_1_18</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4779,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
         <v>511</v>
@@ -4795,18 +4794,18 @@
         <v>320</v>
       </c>
       <c r="M44" s="1">
-        <f>IF(N44=N43, M43+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="N44" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O44" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
-        <v>484</v>
+        <v>51</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4814,11 +4813,11 @@
       <c r="S44"/>
       <c r="T44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>rema_2_2_1_19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4831,21 +4830,21 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>511</v>
+      <c r="E45" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s">
-        <v>511</v>
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="4"/>
@@ -4858,26 +4857,27 @@
         <v>320</v>
       </c>
       <c r="M45" s="1">
-        <f>IF(N45=N44, M44+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>509</v>
-      </c>
-      <c r="O45" t="s">
-        <v>510</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>51</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R45" s="1">
+        <v>10</v>
+      </c>
+      <c r="S45" s="1">
+        <v>43</v>
+      </c>
       <c r="T45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_2_1_1</v>
+        <v>rema_2_3_1_1</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -4921,27 +4921,27 @@
         <v>320</v>
       </c>
       <c r="M46" s="1">
-        <f>IF(I46=N45, M45+1, 1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="R46" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_1</v>
+        <v>rema_2_3_1_2</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -4986,10 +4986,10 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>356</v>
+        <v>58</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>357</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="T47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_2</v>
+        <v>rema_2_3_1_3</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -5050,10 +5050,10 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>58</v>
+        <v>358</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>357</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="T48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_3</v>
+        <v>rema_2_3_1_4</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -5114,10 +5114,10 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>358</v>
+        <v>30</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>357</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="T49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_4</v>
+        <v>rema_2_3_1_5</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -5178,10 +5178,10 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>357</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="T50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_5</v>
+        <v>rema_2_3_1_6</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -5242,10 +5242,10 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>357</v>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="T51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_6</v>
+        <v>rema_2_3_1_7</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -5306,10 +5306,10 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>359</v>
+        <v>60</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>357</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="T52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_7</v>
+        <v>rema_2_3_1_8</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -5370,26 +5370,26 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S53" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="T53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_8</v>
+        <v>rema_2_3_1_9</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -5417,43 +5417,43 @@
         <v>3</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="R54" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S54" s="1">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="T54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_1_9</v>
+        <v>rema_2_3_2_1</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -5498,26 +5498,26 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_1</v>
+        <v>rema_2_3_2_2</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -5562,13 +5562,13 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>62</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="T56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_2</v>
+        <v>rema_2_3_2_3</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -5626,10 +5626,10 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>65</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="T57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_3</v>
+        <v>rema_2_3_2_4</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -5690,13 +5690,13 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>62</v>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="T58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_4</v>
+        <v>rema_2_3_2_5</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -5754,10 +5754,10 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>367</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="T59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_5</v>
+        <v>rema_2_3_2_6</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -5818,13 +5818,13 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>368</v>
+        <v>66</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>62</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="T60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_6</v>
+        <v>rema_2_3_2_7</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -5882,13 +5882,13 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>62</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="T61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_7</v>
+        <v>rema_2_3_2_8</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -5946,13 +5946,13 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>68</v>
+        <v>369</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>62</v>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="T62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_8</v>
+        <v>rema_2_3_2_9</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -6010,13 +6010,13 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>369</v>
+        <v>70</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>62</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="T63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_9</v>
+        <v>rema_2_3_2_10</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -6074,13 +6074,13 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>62</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="T64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_10</v>
+        <v>rema_2_3_2_11</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -6138,13 +6138,13 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>62</v>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="T65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>rema_2_3_2_11</v>
+        <v>rema_2_3_2_12</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -6185,30 +6185,30 @@
         <v>3</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>62</v>
@@ -6220,8 +6220,8 @@
         <v>0</v>
       </c>
       <c r="T66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>rema_2_3_2_12</v>
+        <f t="shared" ref="T66:T129" si="5">LOWER(_xlfn.CONCAT(A66,"_",C66,"_",LEFT(F66,3), "_",J66,"_", M66))</f>
+        <v>rema_2_3_3_1</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -6266,13 +6266,13 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>62</v>
@@ -6284,8 +6284,8 @@
         <v>0</v>
       </c>
       <c r="T67" s="1" t="str">
-        <f t="shared" ref="T67:T130" si="5">LOWER(_xlfn.CONCAT(A67,"_",C67,"_",LEFT(F67,3), "_",J67,"_", M67))</f>
-        <v>rema_2_3_3_1</v>
+        <f t="shared" si="5"/>
+        <v>rema_2_3_3_2</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -6330,13 +6330,13 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>62</v>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="T68" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_3_2</v>
+        <v>rema_2_3_3_3</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -6394,13 +6394,13 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q69" s="1" t="s">
         <v>62</v>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="T69" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_3_3</v>
+        <v>rema_2_3_3_4</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -6458,26 +6458,26 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_3_4</v>
+        <v>rema_2_3_3_5</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -6522,26 +6522,26 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R71" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_3_5</v>
+        <v>rema_2_3_3_6</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -6569,43 +6569,43 @@
         <v>3</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K72" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M72" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R72" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="T72" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_3_6</v>
+        <v>rema_2_3_4_1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -6650,26 +6650,26 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q73" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R73" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_1</v>
+        <v>rema_2_3_4_2</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -6714,13 +6714,13 @@
       </c>
       <c r="M74" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>62</v>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="T74" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_2</v>
+        <v>rema_2_3_4_3</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
@@ -6778,26 +6778,26 @@
       </c>
       <c r="M75" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>87</v>
+        <v>376</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S75" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T75" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_3</v>
+        <v>rema_2_3_4_4</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -6842,26 +6842,26 @@
       </c>
       <c r="M76" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R76" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T76" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_4</v>
+        <v>rema_2_3_4_5</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -6906,13 +6906,13 @@
       </c>
       <c r="M77" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>62</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="T77" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_5</v>
+        <v>rema_2_3_4_6</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -6970,13 +6970,13 @@
       </c>
       <c r="M78" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>91</v>
+        <v>377</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>91</v>
+        <v>377</v>
       </c>
       <c r="Q78" s="1" t="s">
         <v>62</v>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="T78" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_6</v>
+        <v>rema_2_3_4_7</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -7034,13 +7034,13 @@
       </c>
       <c r="M79" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>377</v>
+        <v>93</v>
       </c>
       <c r="Q79" s="1" t="s">
         <v>62</v>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="T79" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_7</v>
+        <v>rema_2_3_4_8</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -7098,13 +7098,13 @@
       </c>
       <c r="M80" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q80" s="1" t="s">
         <v>62</v>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="T80" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_8</v>
+        <v>rema_2_3_4_9</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -7162,13 +7162,13 @@
       </c>
       <c r="M81" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q81" s="1" t="s">
         <v>62</v>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="T81" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_9</v>
+        <v>rema_2_3_4_10</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -7226,13 +7226,13 @@
       </c>
       <c r="M82" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>62</v>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="T82" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_10</v>
+        <v>rema_2_3_4_11</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -7290,13 +7290,13 @@
       </c>
       <c r="M83" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="1" t="s">
         <v>62</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="T83" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_11</v>
+        <v>rema_2_3_4_12</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -7353,14 +7353,14 @@
         <v>320</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="M84:M147" si="9">IF(I84=I83, M83+1, 1)</f>
+        <v>13</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q84" s="1" t="s">
         <v>62</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="T84" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_12</v>
+        <v>rema_2_3_4_13</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -7417,27 +7417,27 @@
         <v>320</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" ref="M85:M148" si="9">IF(I85=I84, M84+1, 1)</f>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R85" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S85" s="1">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="T85" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_13</v>
+        <v>rema_2_3_4_14</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -7465,43 +7465,43 @@
         <v>3</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K86" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>103</v>
+        <v>378</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="Q86" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R86" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S86" s="1">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="T86" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_4_14</v>
+        <v>rema_2_3_5_1</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -7546,26 +7546,26 @@
       </c>
       <c r="M87" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R87" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S87" s="1">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="T87" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_1</v>
+        <v>rema_2_3_5_2</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -7610,13 +7610,13 @@
       </c>
       <c r="M88" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>107</v>
+        <v>380</v>
       </c>
       <c r="Q88" s="1" t="s">
         <v>62</v>
@@ -7625,11 +7625,11 @@
         <v>1</v>
       </c>
       <c r="S88" s="1">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="T88" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_2</v>
+        <v>rema_2_3_5_3</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -7674,26 +7674,26 @@
       </c>
       <c r="M89" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="Q89" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" s="1">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="T89" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_3</v>
+        <v>rema_2_3_5_4</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -7738,13 +7738,13 @@
       </c>
       <c r="M90" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q90" s="1" t="s">
         <v>62</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="T90" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_4</v>
+        <v>rema_2_3_5_5</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -7802,26 +7802,26 @@
       </c>
       <c r="M91" s="1">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" s="1">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="T91" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_5</v>
+        <v>rema_2_3_5_6</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -7866,26 +7866,26 @@
       </c>
       <c r="M92" s="1">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q92" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R92" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S92" s="1">
-        <v>780</v>
+        <v>210</v>
       </c>
       <c r="T92" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_6</v>
+        <v>rema_2_3_5_7</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -7930,26 +7930,26 @@
       </c>
       <c r="M93" s="1">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>116</v>
+        <v>381</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R93" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S93" s="1">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="T93" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_7</v>
+        <v>rema_2_3_5_8</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
@@ -7994,26 +7994,26 @@
       </c>
       <c r="M94" s="1">
         <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R94" s="1">
         <v>8</v>
       </c>
-      <c r="N94" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R94" s="1">
-        <v>1</v>
-      </c>
       <c r="S94" s="1">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="T94" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_8</v>
+        <v>rema_2_3_5_9</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -8058,26 +8058,26 @@
       </c>
       <c r="M95" s="1">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="R95" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S95" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="T95" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_9</v>
+        <v>rema_2_3_5_10</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -8105,43 +8105,43 @@
         <v>3</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K96" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M96" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>383</v>
+        <v>122</v>
       </c>
       <c r="Q96" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R96" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S96" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="T96" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_5_10</v>
+        <v>rema_2_3_6_1</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -8186,13 +8186,13 @@
       </c>
       <c r="M97" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q97" s="1" t="s">
         <v>62</v>
@@ -8201,11 +8201,11 @@
         <v>0</v>
       </c>
       <c r="S97" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T97" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_1</v>
+        <v>rema_2_3_6_2</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -8250,26 +8250,26 @@
       </c>
       <c r="M98" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q98" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R98" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S98" s="1">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="T98" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_2</v>
+        <v>rema_2_3_6_3</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -8314,26 +8314,26 @@
       </c>
       <c r="M99" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q99" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R99" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S99" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T99" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_3</v>
+        <v>rema_2_3_6_4</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -8378,26 +8378,26 @@
       </c>
       <c r="M100" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>128</v>
+        <v>387</v>
       </c>
       <c r="Q100" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="T100" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_4</v>
+        <v>rema_2_3_6_5</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -8442,26 +8442,26 @@
       </c>
       <c r="M101" s="1">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q101" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R101" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S101" s="1">
-        <v>585</v>
+        <v>27</v>
       </c>
       <c r="T101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_5</v>
+        <v>rema_2_3_6_6</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -8506,26 +8506,26 @@
       </c>
       <c r="M102" s="1">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>388</v>
+        <v>129</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="Q102" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R102" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S102" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="T102" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_6</v>
+        <v>rema_2_3_6_7</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -8570,13 +8570,13 @@
       </c>
       <c r="M103" s="1">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q103" s="1" t="s">
         <v>62</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="T103" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_7</v>
+        <v>rema_2_3_6_8</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
@@ -8634,13 +8634,13 @@
       </c>
       <c r="M104" s="1">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q104" s="1" t="s">
         <v>62</v>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="T104" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_8</v>
+        <v>rema_2_3_6_9</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -8698,13 +8698,13 @@
       </c>
       <c r="M105" s="1">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>134</v>
+        <v>390</v>
       </c>
       <c r="Q105" s="1" t="s">
         <v>62</v>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="T105" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_9</v>
+        <v>rema_2_3_6_10</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
@@ -8762,13 +8762,13 @@
       </c>
       <c r="M106" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>62</v>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="T106" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_10</v>
+        <v>rema_2_3_6_11</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
@@ -8826,13 +8826,13 @@
       </c>
       <c r="M107" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>137</v>
+        <v>391</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>62</v>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="T107" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_11</v>
+        <v>rema_2_3_6_12</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
@@ -8890,13 +8890,13 @@
       </c>
       <c r="M108" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>391</v>
+        <v>140</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>62</v>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="T108" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_12</v>
+        <v>rema_2_3_6_13</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
@@ -8954,13 +8954,13 @@
       </c>
       <c r="M109" s="1">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>62</v>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="T109" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_13</v>
+        <v>rema_2_3_6_14</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -9018,13 +9018,13 @@
       </c>
       <c r="M110" s="1">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>62</v>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="T110" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_14</v>
+        <v>rema_2_3_6_15</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -9082,13 +9082,13 @@
       </c>
       <c r="M111" s="1">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>144</v>
+        <v>392</v>
       </c>
       <c r="Q111" s="1" t="s">
         <v>62</v>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="T111" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_15</v>
+        <v>rema_2_3_6_16</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -9146,13 +9146,13 @@
       </c>
       <c r="M112" s="1">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>392</v>
+        <v>146</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>62</v>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="T112" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_16</v>
+        <v>rema_2_3_6_17</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
@@ -9210,13 +9210,13 @@
       </c>
       <c r="M113" s="1">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>146</v>
+        <v>393</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>146</v>
+        <v>394</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>62</v>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="T113" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_17</v>
+        <v>rema_2_3_6_18</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
@@ -9274,13 +9274,13 @@
       </c>
       <c r="M114" s="1">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>393</v>
+        <v>147</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q114" s="1" t="s">
         <v>62</v>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="T114" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_18</v>
+        <v>rema_2_3_6_19</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
@@ -9321,43 +9321,43 @@
         <v>3</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>384</v>
+        <v>149</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K115" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M115" s="1">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>147</v>
+        <v>396</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="R115" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S115" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T115" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_6_19</v>
+        <v>rema_2_3_7_1</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -9402,26 +9402,26 @@
       </c>
       <c r="M116" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>150</v>
+        <v>398</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="R116" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S116" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T116" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_1</v>
+        <v>rema_2_3_7_2</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
@@ -9466,13 +9466,13 @@
       </c>
       <c r="M117" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>398</v>
+        <v>152</v>
       </c>
       <c r="Q117" s="1" t="s">
         <v>62</v>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="T117" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_2</v>
+        <v>rema_2_3_7_3</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
@@ -9530,26 +9530,26 @@
       </c>
       <c r="M118" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>399</v>
+        <v>153</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="R118" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S118" s="1">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="T118" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_3</v>
+        <v>rema_2_3_7_4</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
@@ -9594,26 +9594,26 @@
       </c>
       <c r="M119" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="R119" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S119" s="1">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="T119" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_4</v>
+        <v>rema_2_3_7_5</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -9658,13 +9658,13 @@
       </c>
       <c r="M120" s="1">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q120" s="1" t="s">
         <v>62</v>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="T120" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_5</v>
+        <v>rema_2_3_7_6</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
@@ -9722,13 +9722,13 @@
       </c>
       <c r="M121" s="1">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q121" s="1" t="s">
         <v>62</v>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="T121" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_6</v>
+        <v>rema_2_3_7_7</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
@@ -9786,13 +9786,13 @@
       </c>
       <c r="M122" s="1">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>159</v>
+        <v>400</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>62</v>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="T122" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_7</v>
+        <v>rema_2_3_7_8</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
@@ -9850,13 +9850,13 @@
       </c>
       <c r="M123" s="1">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="Q123" s="1" t="s">
         <v>62</v>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="T123" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_8</v>
+        <v>rema_2_3_7_9</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
@@ -9914,13 +9914,13 @@
       </c>
       <c r="M124" s="1">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q124" s="1" t="s">
         <v>62</v>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="T124" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_9</v>
+        <v>rema_2_3_7_10</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
@@ -9978,13 +9978,13 @@
       </c>
       <c r="M125" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q125" s="1" t="s">
         <v>62</v>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="T125" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_10</v>
+        <v>rema_2_3_7_11</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
@@ -10042,13 +10042,13 @@
       </c>
       <c r="M126" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>405</v>
+        <v>162</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q126" s="1" t="s">
         <v>62</v>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="T126" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_11</v>
+        <v>rema_2_3_7_12</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
@@ -10106,13 +10106,13 @@
       </c>
       <c r="M127" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q127" s="1" t="s">
         <v>62</v>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="T127" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_12</v>
+        <v>rema_2_3_7_13</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
@@ -10153,43 +10153,43 @@
         <v>3</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K128" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M128" s="1">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="R128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S128" s="1">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="T128" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_7_13</v>
+        <v>rema_2_3_8_1</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
@@ -10217,17 +10217,17 @@
         <v>3</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K129" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>320</v>
@@ -10237,23 +10237,23 @@
         <v>1</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>410</v>
+        <v>166</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>411</v>
+        <v>167</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="R129" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S129" s="1">
-        <v>2700</v>
+        <v>89</v>
       </c>
       <c r="T129" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rema_2_3_8_1</v>
+        <v>rema_2_3_9_1</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
@@ -10271,27 +10271,27 @@
         <v>1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G130" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K130" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>320</v>
@@ -10301,23 +10301,23 @@
         <v>1</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>167</v>
+        <v>412</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="R130" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S130" s="1">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="T130" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>rema_2_3_9_1</v>
+        <f t="shared" ref="T130:T184" si="10">LOWER(_xlfn.CONCAT(A130,"_",C130,"_",LEFT(F130,3), "_",J130,"_", M130))</f>
+        <v>rema_2_4_1_1</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
@@ -10362,13 +10362,13 @@
       </c>
       <c r="M131" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>169</v>
+        <v>413</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q131" s="1" t="s">
         <v>62</v>
@@ -10380,8 +10380,8 @@
         <v>0</v>
       </c>
       <c r="T131" s="1" t="str">
-        <f t="shared" ref="T131:T185" si="10">LOWER(_xlfn.CONCAT(A131,"_",C131,"_",LEFT(F131,3), "_",J131,"_", M131))</f>
-        <v>rema_2_4_1_1</v>
+        <f t="shared" si="10"/>
+        <v>rema_2_4_1_2</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
@@ -10392,7 +10392,7 @@
         <v>41</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" ref="C132:C185" si="11">IF(B132=B131, C131,C131+1)</f>
+        <f t="shared" ref="C132:C184" si="11">IF(B132=B131, C131,C131+1)</f>
         <v>2</v>
       </c>
       <c r="D132" s="1">
@@ -10402,37 +10402,37 @@
         <v>168</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" ref="F132:F185" si="12">IF(B132=B131, IF(E132=E131,F131,F131+1-IF(B132=B131,0,1)), 1)</f>
+        <f t="shared" ref="F132:F184" si="12">IF(B132=B131, IF(E132=E131,F131,F131+1-IF(B132=B131,0,1)), 1)</f>
         <v>4</v>
       </c>
       <c r="G132" s="1">
         <v>4</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" ref="J132:J185" si="13">IF(E132=E131, IF(I132=I131,J131,J131+1-IF(E132=E131,0,1)), 1)</f>
-        <v>1</v>
+        <f t="shared" ref="J132:J184" si="13">IF(E132=E131, IF(I132=I131,J131,J131+1-IF(E132=E131,0,1)), 1)</f>
+        <v>2</v>
       </c>
       <c r="K132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M132" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q132" s="1" t="s">
         <v>62</v>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="T132" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_1_2</v>
+        <v>rema_2_4_2_1</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
@@ -10490,13 +10490,13 @@
       </c>
       <c r="M133" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q133" s="1" t="s">
         <v>62</v>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="T133" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_2_1</v>
+        <v>rema_2_4_2_2</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
@@ -10537,30 +10537,30 @@
         <v>4</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K134" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>416</v>
+        <v>171</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>417</v>
+        <v>172</v>
       </c>
       <c r="Q134" s="1" t="s">
         <v>62</v>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="T134" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_2_2</v>
+        <v>rema_2_4_3_1</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
@@ -10618,13 +10618,13 @@
       </c>
       <c r="M135" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q135" s="1" t="s">
         <v>62</v>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="T135" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_1</v>
+        <v>rema_2_4_3_2</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
@@ -10682,13 +10682,13 @@
       </c>
       <c r="M136" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q136" s="1" t="s">
         <v>62</v>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="T136" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_2</v>
+        <v>rema_2_4_3_3</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
@@ -10746,13 +10746,13 @@
       </c>
       <c r="M137" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q137" s="1" t="s">
         <v>62</v>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="T137" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_3</v>
+        <v>rema_2_4_3_4</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
@@ -10810,13 +10810,13 @@
       </c>
       <c r="M138" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="Q138" s="1" t="s">
         <v>62</v>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="T138" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_4</v>
+        <v>rema_2_4_3_5</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
@@ -10874,10 +10874,10 @@
       </c>
       <c r="M139" s="1">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>418</v>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="T139" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_5</v>
+        <v>rema_2_4_3_6</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
@@ -10938,10 +10938,10 @@
       </c>
       <c r="M140" s="1">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>418</v>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="T140" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_6</v>
+        <v>rema_2_4_3_7</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
@@ -11002,13 +11002,13 @@
       </c>
       <c r="M141" s="1">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>181</v>
+        <v>419</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q141" s="1" t="s">
         <v>62</v>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="T141" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_7</v>
+        <v>rema_2_4_3_8</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
@@ -11066,13 +11066,13 @@
       </c>
       <c r="M142" s="1">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>419</v>
+        <v>182</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>420</v>
+        <v>183</v>
       </c>
       <c r="Q142" s="1" t="s">
         <v>62</v>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="T142" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_8</v>
+        <v>rema_2_4_3_9</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
@@ -11130,13 +11130,13 @@
       </c>
       <c r="M143" s="1">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>183</v>
+        <v>421</v>
       </c>
       <c r="Q143" s="1" t="s">
         <v>62</v>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="T143" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_9</v>
+        <v>rema_2_4_3_10</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
@@ -11194,13 +11194,13 @@
       </c>
       <c r="M144" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>421</v>
+        <v>186</v>
       </c>
       <c r="Q144" s="1" t="s">
         <v>62</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="T144" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_10</v>
+        <v>rema_2_4_3_11</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
@@ -11258,13 +11258,13 @@
       </c>
       <c r="M145" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q145" s="1" t="s">
         <v>62</v>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="T145" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_11</v>
+        <v>rema_2_4_3_12</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
@@ -11322,13 +11322,13 @@
       </c>
       <c r="M146" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>187</v>
+        <v>422</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>188</v>
+        <v>422</v>
       </c>
       <c r="Q146" s="1" t="s">
         <v>62</v>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="T146" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_12</v>
+        <v>rema_2_4_3_13</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
@@ -11386,13 +11386,13 @@
       </c>
       <c r="M147" s="1">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>422</v>
+        <v>189</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>422</v>
+        <v>190</v>
       </c>
       <c r="Q147" s="1" t="s">
         <v>62</v>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="T147" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_13</v>
+        <v>rema_2_4_3_14</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
@@ -11423,40 +11423,40 @@
         <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G148" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K148" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M148" s="1">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" ref="M148:M184" si="14">IF(I148=I147, M147+1, 1)</f>
+        <v>1</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>189</v>
+        <v>423</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>190</v>
+        <v>424</v>
       </c>
       <c r="Q148" s="1" t="s">
         <v>62</v>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="T148" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_4_3_14</v>
+        <v>rema_2_5_1_1</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
@@ -11497,30 +11497,30 @@
         <v>5</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J149" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K149" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M149" s="1">
-        <f t="shared" ref="M149:M185" si="14">IF(I149=I148, M148+1, 1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>423</v>
+        <v>192</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q149" s="1" t="s">
         <v>62</v>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="T149" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_5_1_1</v>
+        <v>rema_2_5_2_1</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
@@ -11578,13 +11578,13 @@
       </c>
       <c r="M150" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>192</v>
+        <v>426</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q150" s="1" t="s">
         <v>62</v>
@@ -11597,7 +11597,7 @@
       </c>
       <c r="T150" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_5_2_1</v>
+        <v>rema_2_5_2_2</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
@@ -11642,13 +11642,13 @@
       </c>
       <c r="M151" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>426</v>
+        <v>193</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>427</v>
+        <v>194</v>
       </c>
       <c r="Q151" s="1" t="s">
         <v>62</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="T151" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_5_2_2</v>
+        <v>rema_2_5_2_3</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
@@ -11689,30 +11689,30 @@
         <v>5</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="J152" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K152" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>193</v>
+        <v>428</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="Q152" s="1" t="s">
         <v>62</v>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="T152" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_5_2_3</v>
+        <v>rema_2_5_3_1</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
@@ -11743,14 +11743,14 @@
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G153" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>148</v>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="J153" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K153" s="1">
         <v>1</v>
@@ -11770,13 +11770,13 @@
       </c>
       <c r="M153" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>428</v>
+        <v>196</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>62</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="T153" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_5_3_1</v>
+        <v>rema_2_6_1_2</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
@@ -11817,30 +11817,30 @@
         <v>6</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="J154" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K154" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M154" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q154" s="1" t="s">
         <v>62</v>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="T154" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_1_2</v>
+        <v>rema_2_6_2_1</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
@@ -11898,13 +11898,13 @@
       </c>
       <c r="M155" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>431</v>
+        <v>199</v>
       </c>
       <c r="Q155" s="1" t="s">
         <v>62</v>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="T155" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_1</v>
+        <v>rema_2_6_2_2</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
@@ -11962,13 +11962,13 @@
       </c>
       <c r="M156" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>199</v>
+        <v>432</v>
       </c>
       <c r="Q156" s="1" t="s">
         <v>62</v>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="T156" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_2</v>
+        <v>rema_2_6_2_3</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
@@ -12026,13 +12026,13 @@
       </c>
       <c r="M157" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>432</v>
+        <v>202</v>
       </c>
       <c r="Q157" s="1" t="s">
         <v>62</v>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="T157" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_3</v>
+        <v>rema_2_6_2_4</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
@@ -12090,13 +12090,13 @@
       </c>
       <c r="M158" s="1">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q158" s="1" t="s">
         <v>62</v>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="T158" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_4</v>
+        <v>rema_2_6_2_5</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
@@ -12154,13 +12154,13 @@
       </c>
       <c r="M159" s="1">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="Q159" s="1" t="s">
         <v>62</v>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="T159" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_5</v>
+        <v>rema_2_6_2_6</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
@@ -12218,13 +12218,13 @@
       </c>
       <c r="M160" s="1">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>211</v>
+        <v>434</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q160" s="1" t="s">
         <v>62</v>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="T160" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_6</v>
+        <v>rema_2_6_2_7</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
@@ -12282,13 +12282,13 @@
       </c>
       <c r="M161" s="1">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>434</v>
+        <v>212</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="Q161" s="1" t="s">
         <v>62</v>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="T161" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_7</v>
+        <v>rema_2_6_2_8</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
@@ -12329,30 +12329,30 @@
         <v>6</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K162" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M162" s="1">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q162" s="1" t="s">
         <v>62</v>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="T162" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_2_8</v>
+        <v>rema_2_6_3_1</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
@@ -12410,13 +12410,13 @@
       </c>
       <c r="M163" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>206</v>
+        <v>436</v>
       </c>
       <c r="Q163" s="1" t="s">
         <v>62</v>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="T163" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_3_1</v>
+        <v>rema_2_6_3_2</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
@@ -12474,13 +12474,13 @@
       </c>
       <c r="M164" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q164" s="1" t="s">
         <v>62</v>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="T164" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_3_2</v>
+        <v>rema_2_6_3_3</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
@@ -12538,13 +12538,13 @@
       </c>
       <c r="M165" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>437</v>
+        <v>208</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>438</v>
+        <v>209</v>
       </c>
       <c r="Q165" s="1" t="s">
         <v>62</v>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="T165" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_3_3</v>
+        <v>rema_2_6_3_4</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
@@ -12602,13 +12602,13 @@
       </c>
       <c r="M166" s="1">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>209</v>
+        <v>439</v>
       </c>
       <c r="Q166" s="1" t="s">
         <v>62</v>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="T166" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_3_4</v>
+        <v>rema_2_6_3_5</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
@@ -12639,40 +12639,40 @@
         <v>1</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G167" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="J167" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K167" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q167" s="1" t="s">
         <v>62</v>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="T167" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_6_3_5</v>
+        <v>rema_2_7_1_1</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
@@ -12730,13 +12730,13 @@
       </c>
       <c r="M168" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>440</v>
+        <v>217</v>
       </c>
       <c r="Q168" s="1" t="s">
         <v>62</v>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="T168" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_7_1_1</v>
+        <v>rema_2_7_1_2</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
@@ -12777,30 +12777,30 @@
         <v>7</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="J169" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M169" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>216</v>
+        <v>441</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>217</v>
+        <v>442</v>
       </c>
       <c r="Q169" s="1" t="s">
         <v>62</v>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="T169" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_7_1_2</v>
+        <v>rema_2_7_2_1</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
@@ -12858,13 +12858,13 @@
       </c>
       <c r="M170" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>441</v>
+        <v>218</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>442</v>
+        <v>219</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>62</v>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="T170" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_7_2_1</v>
+        <v>rema_2_7_2_2</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
@@ -12905,30 +12905,30 @@
         <v>7</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="J171" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>320</v>
       </c>
       <c r="M171" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>62</v>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="T171" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_7_2_2</v>
+        <v>rema_2_7_3_1</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
@@ -12969,17 +12969,17 @@
         <v>7</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>149</v>
+        <v>443</v>
       </c>
       <c r="J172" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K172" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>320</v>
@@ -12989,10 +12989,10 @@
         <v>1</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="Q172" s="1" t="s">
         <v>62</v>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="T172" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_7_3_1</v>
+        <v>rema_2_7_4_1</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
@@ -13023,27 +13023,27 @@
         <v>1</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>214</v>
+        <v>446</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G173" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="J173" s="1">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K173" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>320</v>
@@ -13053,10 +13053,10 @@
         <v>1</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>444</v>
+        <v>30</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q173" s="1" t="s">
         <v>62</v>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="T173" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_7_4_1</v>
+        <v>rema_2_8_1_1</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
@@ -13087,20 +13087,20 @@
         <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>446</v>
+        <v>47</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G174" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>447</v>
+        <v>49</v>
       </c>
       <c r="J174" s="1">
         <f t="shared" si="13"/>
@@ -13117,13 +13117,13 @@
         <v>1</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>448</v>
+        <v>51</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="R174" s="1">
         <v>0</v>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="T174" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_8_1_1</v>
+        <v>rema_2_9_1_1</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
@@ -13161,7 +13161,7 @@
         <v>9</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>49</v>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="M175" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>50</v>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="T175" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_9_1_1</v>
+        <v>rema_2_9_1_2</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
@@ -13225,7 +13225,7 @@
         <v>9</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>49</v>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="M176" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>50</v>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="T176" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_9_1_2</v>
+        <v>rema_2_9_1_3</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.2">
@@ -13289,7 +13289,7 @@
         <v>9</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>49</v>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="M177" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>50</v>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="T177" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_9_1_3</v>
+        <v>rema_2_9_1_4</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.2">
@@ -13353,7 +13353,7 @@
         <v>9</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>49</v>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="M178" s="1">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>50</v>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="T178" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_9_1_4</v>
+        <v>rema_2_9_1_5</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.2">
@@ -13397,30 +13397,30 @@
         <v>325</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="C179" s="1">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G179" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>49</v>
+        <v>449</v>
       </c>
       <c r="J179" s="1">
         <f t="shared" si="13"/>
@@ -13434,16 +13434,16 @@
       </c>
       <c r="M179" s="1">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="R179" s="1">
         <v>0</v>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="T179" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_2_9_1_5</v>
+        <v>rema_3_1_1_1</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.2">
@@ -13471,20 +13471,20 @@
         <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>449</v>
+        <v>49</v>
       </c>
       <c r="J180" s="1">
         <f t="shared" si="13"/>
@@ -13501,13 +13501,13 @@
         <v>1</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="R180" s="1">
         <v>0</v>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="T180" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_3_1_1_1</v>
+        <v>rema_3_2_1_1</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
@@ -13545,7 +13545,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>49</v>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="M181" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N181" s="1" t="s">
         <v>50</v>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="T181" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_3_2_1_1</v>
+        <v>rema_3_2_1_2</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.2">
@@ -13609,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>49</v>
@@ -13626,7 +13626,7 @@
       </c>
       <c r="M182" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N182" s="1" t="s">
         <v>50</v>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="T182" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_3_2_1_2</v>
+        <v>rema_3_2_1_3</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.2">
@@ -13673,7 +13673,7 @@
         <v>2</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>49</v>
@@ -13690,7 +13690,7 @@
       </c>
       <c r="M183" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N183" s="1" t="s">
         <v>50</v>
@@ -13709,7 +13709,7 @@
       </c>
       <c r="T183" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_3_2_1_3</v>
+        <v>rema_3_2_1_4</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.2">
@@ -13737,7 +13737,7 @@
         <v>2</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>49</v>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="M184" s="1">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N184" s="1" t="s">
         <v>50</v>
@@ -13773,75 +13773,11 @@
       </c>
       <c r="T184" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>rema_3_2_1_4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C185" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D185" s="1">
-        <v>1</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F185" s="1">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="G185" s="1">
-        <v>2</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J185" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K185" s="1">
-        <v>1</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M185" s="1">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O185" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q185" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R185" s="1">
-        <v>0</v>
-      </c>
-      <c r="S185" s="1">
-        <v>0</v>
-      </c>
-      <c r="T185" s="1" t="str">
-        <f t="shared" si="10"/>
         <v>rema_3_2_1_5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T185" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:T184" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
